--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="CheckVersion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
@@ -423,9 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -465,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
